--- a/individual_results/avey/66.xlsx
+++ b/individual_results/avey/66.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.75</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>0.6666666666666666</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -608,7 +608,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
         <v>0.5714285714285715</v>
@@ -617,9 +617,7 @@
         <v>0.8</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.8571428571428571</v>
       </c>
@@ -631,7 +629,7 @@
         <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -650,7 +648,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="F5" t="n">
         <v>0.625</v>
@@ -659,9 +657,7 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.9375</v>
       </c>
@@ -673,7 +669,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +688,7 @@
         <v>0.2661616193664992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9492929126275376</v>
+        <v>0.7895959410076381</v>
       </c>
       <c r="F6" t="n">
         <v>0.7895959410076381</v>
@@ -704,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.6166463990037038</v>
@@ -719,7 +715,7 @@
         <v>0.319393943239799</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06717171396683416</v>
+        <v>0.3865656572066332</v>
       </c>
     </row>
     <row r="7">
@@ -750,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -796,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -842,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -883,9 +879,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>3</v>
       </c>
@@ -912,7 +906,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F11" t="n">
         <v>1.333333333333333</v>
